--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +537,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H2">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J2">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.6320075</v>
+        <v>30.801072</v>
       </c>
       <c r="N2">
-        <v>67.264015</v>
+        <v>61.602144</v>
       </c>
       <c r="O2">
-        <v>0.3908110491225105</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P2">
-        <v>0.3281482467916435</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q2">
-        <v>6.63386303136375</v>
+        <v>0.900453939384</v>
       </c>
       <c r="R2">
-        <v>26.535452125455</v>
+        <v>3.601815757536</v>
       </c>
       <c r="S2">
-        <v>0.329396679505101</v>
+        <v>0.2379788386444245</v>
       </c>
       <c r="T2">
-        <v>0.2564324249285653</v>
+        <v>0.1682994413865508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +599,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H3">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J3">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +623,22 @@
         <v>36.045639</v>
       </c>
       <c r="O3">
-        <v>0.1396193194224409</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="P3">
-        <v>0.1758490515669409</v>
+        <v>0.2843011610923331</v>
       </c>
       <c r="Q3">
-        <v>2.3699827414305</v>
+        <v>0.3512587444485</v>
       </c>
       <c r="R3">
-        <v>14.219896448583</v>
+        <v>2.107552466691</v>
       </c>
       <c r="S3">
-        <v>0.1176787102508384</v>
+        <v>0.09283334150854852</v>
       </c>
       <c r="T3">
-        <v>0.1374177651582301</v>
+        <v>0.09847808069993912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +661,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H4">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J4">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.122567</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N4">
-        <v>0.367701</v>
+        <v>0.391675</v>
       </c>
       <c r="O4">
-        <v>0.001424254495001488</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="P4">
-        <v>0.001793833426290924</v>
+        <v>0.003089240761436898</v>
       </c>
       <c r="Q4">
-        <v>0.0241761568995</v>
+        <v>0.003816807595833333</v>
       </c>
       <c r="R4">
-        <v>0.145056941397</v>
+        <v>0.022900845575</v>
       </c>
       <c r="S4">
-        <v>0.001200438683801486</v>
+        <v>0.001008735038248614</v>
       </c>
       <c r="T4">
-        <v>0.001401796474365356</v>
+        <v>0.001070071257667222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +723,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H5">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I5">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J5">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.558276</v>
+        <v>14.373679</v>
       </c>
       <c r="N5">
-        <v>39.116552</v>
+        <v>28.747358</v>
       </c>
       <c r="O5">
-        <v>0.2272713088146052</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="P5">
-        <v>0.1908305348607893</v>
+        <v>0.2267377548151379</v>
       </c>
       <c r="Q5">
-        <v>3.857840603586</v>
+        <v>0.4202073187255</v>
       </c>
       <c r="R5">
-        <v>15.431362414344</v>
+        <v>1.680829274902</v>
       </c>
       <c r="S5">
-        <v>0.1915565453904085</v>
+        <v>0.1110555968788279</v>
       </c>
       <c r="T5">
-        <v>0.1491250899043764</v>
+        <v>0.0785388945673578</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -782,60 +776,60 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1972485</v>
+        <v>0.036776</v>
       </c>
       <c r="H6">
-        <v>0.394497</v>
+        <v>0.110328</v>
       </c>
       <c r="I6">
-        <v>0.8428540601518217</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J6">
-        <v>0.7814529787550142</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.59650833333333</v>
+        <v>30.801072</v>
       </c>
       <c r="N6">
-        <v>61.789525</v>
+        <v>61.602144</v>
       </c>
       <c r="O6">
-        <v>0.2393357883858265</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P6">
-        <v>0.3014408863169769</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q6">
-        <v>4.0626303739875</v>
+        <v>1.132740223872</v>
       </c>
       <c r="R6">
-        <v>24.375782243925</v>
+        <v>6.796441343231999</v>
       </c>
       <c r="S6">
-        <v>0.2017251409806311</v>
+        <v>0.2993692305319863</v>
       </c>
       <c r="T6">
-        <v>0.2355618785309531</v>
+        <v>0.3175724019445412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -844,55 +838,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1972485</v>
+        <v>0.036776</v>
       </c>
       <c r="H7">
-        <v>0.394497</v>
+        <v>0.110328</v>
       </c>
       <c r="I7">
-        <v>0.8428540601518217</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J7">
-        <v>0.7814529787550142</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1323796666666666</v>
+        <v>12.015213</v>
       </c>
       <c r="N7">
-        <v>0.397139</v>
+        <v>36.045639</v>
       </c>
       <c r="O7">
-        <v>0.001538279759615545</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="P7">
-        <v>0.001937447037358482</v>
+        <v>0.2843011610923331</v>
       </c>
       <c r="Q7">
-        <v>0.0261116906805</v>
+        <v>0.441871473288</v>
       </c>
       <c r="R7">
-        <v>0.156670144083</v>
+        <v>3.976843259592</v>
       </c>
       <c r="S7">
-        <v>0.001296545341041331</v>
+        <v>0.1167811649700997</v>
       </c>
       <c r="T7">
-        <v>0.001514023758523863</v>
+        <v>0.185823080392394</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,40 +915,40 @@
         <v>0.110328</v>
       </c>
       <c r="I8">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J8">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>33.6320075</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N8">
-        <v>67.264015</v>
+        <v>0.391675</v>
       </c>
       <c r="O8">
-        <v>0.3908110491225105</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="P8">
-        <v>0.3281482467916435</v>
+        <v>0.003089240761436898</v>
       </c>
       <c r="Q8">
-        <v>1.23685070782</v>
+        <v>0.004801413266666666</v>
       </c>
       <c r="R8">
-        <v>7.42110424692</v>
+        <v>0.0432127194</v>
       </c>
       <c r="S8">
-        <v>0.06141436961740947</v>
+        <v>0.001268954138659154</v>
       </c>
       <c r="T8">
-        <v>0.07171582186307819</v>
+        <v>0.002019169503769676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -983,288 +977,40 @@
         <v>0.110328</v>
       </c>
       <c r="I9">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J9">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.015213</v>
+        <v>14.373679</v>
       </c>
       <c r="N9">
-        <v>36.045639</v>
+        <v>28.747358</v>
       </c>
       <c r="O9">
-        <v>0.1396193194224409</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="P9">
-        <v>0.1758490515669409</v>
+        <v>0.2267377548151379</v>
       </c>
       <c r="Q9">
-        <v>0.441871473288</v>
+        <v>0.528606418904</v>
       </c>
       <c r="R9">
-        <v>3.976843259592</v>
+        <v>3.171638513424</v>
       </c>
       <c r="S9">
-        <v>0.02194060917160248</v>
+        <v>0.1397041382892053</v>
       </c>
       <c r="T9">
-        <v>0.03843128640871087</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.036776</v>
-      </c>
-      <c r="H10">
-        <v>0.110328</v>
-      </c>
-      <c r="I10">
-        <v>0.1571459398481783</v>
-      </c>
-      <c r="J10">
-        <v>0.2185470212449859</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.122567</v>
-      </c>
-      <c r="N10">
-        <v>0.367701</v>
-      </c>
-      <c r="O10">
-        <v>0.001424254495001488</v>
-      </c>
-      <c r="P10">
-        <v>0.001793833426290924</v>
-      </c>
-      <c r="Q10">
-        <v>0.004507523992</v>
-      </c>
-      <c r="R10">
-        <v>0.040567715928</v>
-      </c>
-      <c r="S10">
-        <v>0.0002238158112000013</v>
-      </c>
-      <c r="T10">
-        <v>0.0003920369519255684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.036776</v>
-      </c>
-      <c r="H11">
-        <v>0.110328</v>
-      </c>
-      <c r="I11">
-        <v>0.1571459398481783</v>
-      </c>
-      <c r="J11">
-        <v>0.2185470212449859</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>19.558276</v>
-      </c>
-      <c r="N11">
-        <v>39.116552</v>
-      </c>
-      <c r="O11">
-        <v>0.2272713088146052</v>
-      </c>
-      <c r="P11">
-        <v>0.1908305348607893</v>
-      </c>
-      <c r="Q11">
-        <v>0.7192751581759999</v>
-      </c>
-      <c r="R11">
-        <v>4.315650949056</v>
-      </c>
-      <c r="S11">
-        <v>0.03571476342419669</v>
-      </c>
-      <c r="T11">
-        <v>0.04170544495641295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.036776</v>
-      </c>
-      <c r="H12">
-        <v>0.110328</v>
-      </c>
-      <c r="I12">
-        <v>0.1571459398481783</v>
-      </c>
-      <c r="J12">
-        <v>0.2185470212449859</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>20.59650833333333</v>
-      </c>
-      <c r="N12">
-        <v>61.789525</v>
-      </c>
-      <c r="O12">
-        <v>0.2393357883858265</v>
-      </c>
-      <c r="P12">
-        <v>0.3014408863169769</v>
-      </c>
-      <c r="Q12">
-        <v>0.7574571904666666</v>
-      </c>
-      <c r="R12">
-        <v>6.8171147142</v>
-      </c>
-      <c r="S12">
-        <v>0.03761064740519541</v>
-      </c>
-      <c r="T12">
-        <v>0.06587900778602372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.036776</v>
-      </c>
-      <c r="H13">
-        <v>0.110328</v>
-      </c>
-      <c r="I13">
-        <v>0.1571459398481783</v>
-      </c>
-      <c r="J13">
-        <v>0.2185470212449859</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.1323796666666666</v>
-      </c>
-      <c r="N13">
-        <v>0.397139</v>
-      </c>
-      <c r="O13">
-        <v>0.001538279759615545</v>
-      </c>
-      <c r="P13">
-        <v>0.001937447037358482</v>
-      </c>
-      <c r="Q13">
-        <v>0.004868394621333332</v>
-      </c>
-      <c r="R13">
-        <v>0.04381555159199999</v>
-      </c>
-      <c r="S13">
-        <v>0.0002417344185742146</v>
-      </c>
-      <c r="T13">
-        <v>0.0004234232788346192</v>
+        <v>0.14819886024778</v>
       </c>
     </row>
   </sheetData>
